--- a/data/s_vals/2024/nelson_nick.xlsx
+++ b/data/s_vals/2024/nelson_nick.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.52218429426656</v>
+        <v>0.6753301551942219</v>
       </c>
       <c r="C2" t="n">
-        <v>3.326709122536596</v>
+        <v>10.29869402782916</v>
       </c>
       <c r="D2" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7.976631958460093</v>
+        <v>45.85166310918853</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6629759848332026</v>
+        <v>0.127881588408715</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5259639568199952</v>
+        <v>0.3127903958511391</v>
       </c>
       <c r="D3" t="n">
-        <v>2.295182259495947</v>
+        <v>26.21740644021617</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8325562821609895</v>
+        <v>8.660232485948974</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.316678483310135</v>
+        <v>35.318310910425</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6629759848332026</v>
+        <v>0.127881588408715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5259639568199952</v>
+        <v>0.3127903958511391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.218472785105742</v>
+        <v>0.1575252929769615</v>
       </c>
       <c r="E4" t="n">
-        <v>0.345811306910992</v>
+        <v>0.496779210170732</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.753224033669932</v>
+        <v>1.094976487407548</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/nelson_nick.xlsx
+++ b/data/s_vals/2024/nelson_nick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>45.85166310918853</v>
       </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>35.318310910425</v>
       </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -538,6 +549,9 @@
       </c>
       <c r="G4" t="n">
         <v>1.094976487407548</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/nelson_nick.xlsx
+++ b/data/s_vals/2024/nelson_nick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>sum</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Save</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -494,9 +489,6 @@
       <c r="G2" t="n">
         <v>45.85166310918853</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -522,9 +514,6 @@
       <c r="G3" t="n">
         <v>35.318310910425</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -549,9 +538,6 @@
       </c>
       <c r="G4" t="n">
         <v>1.094976487407548</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2024/nelson_nick.xlsx
+++ b/data/s_vals/2024/nelson_nick.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6753301551942219</v>
+        <v>0.7287194209349384</v>
       </c>
       <c r="C2" t="n">
-        <v>10.29869402782916</v>
+        <v>9.226618575922256</v>
       </c>
       <c r="D2" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E2" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>45.85166310918853</v>
+        <v>33.42049719045024</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -505,22 +505,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.127881588408715</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3127903958511391</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D3" t="n">
-        <v>26.21740644021617</v>
+        <v>16.98373111632243</v>
       </c>
       <c r="E3" t="n">
-        <v>8.660232485948974</v>
+        <v>6.48142807727062</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>35.318310910425</v>
+        <v>23.95818750313904</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -533,22 +533,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.127881588408715</v>
+        <v>0.1554434735375247</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3127903958511391</v>
+        <v>0.3375848360084654</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1575252929769615</v>
+        <v>0.1529057820181812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.496779210170732</v>
+        <v>0.4998867070740569</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.094976487407548</v>
+        <v>1.145820798638228</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
